--- a/data/LPN NCLEX pass rates.xlsx
+++ b/data/LPN NCLEX pass rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robina\GA\robina-GA-python\heatmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoy01\YanCao\CaoFiles\git clone folder\LPN-nclex-passrate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F511456-3253-415D-9B4E-6B89064A457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB38B5B2-B60F-45A9-AD83-9A2BB641F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="3" r:id="rId1"/>
@@ -40,6 +40,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -813,15 +816,9 @@
     <t>Davidson, TN</t>
   </si>
   <si>
-    <t>Marshall, TN</t>
-  </si>
-  <si>
     <t>Giles, TN</t>
   </si>
   <si>
-    <t>Macon, TN</t>
-  </si>
-  <si>
     <t>Hardin, TN</t>
   </si>
   <si>
@@ -862,6 +859,12 @@
   </si>
   <si>
     <t>Bedford, TN</t>
+  </si>
+  <si>
+    <t>Madison, TN</t>
+  </si>
+  <si>
+    <t>McMinn, TN</t>
   </si>
 </sst>
 </file>
@@ -9007,9 +9010,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9047,9 +9050,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9082,9 +9085,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9117,9 +9137,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9299,22 +9336,22 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -9349,7 +9386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9384,7 +9421,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>41</v>
       </c>
@@ -9419,7 +9456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
@@ -9454,7 +9491,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9489,7 +9526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>41</v>
       </c>
@@ -9524,7 +9561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>40</v>
       </c>
@@ -9559,7 +9596,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9594,7 +9631,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
@@ -9629,7 +9666,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>40</v>
       </c>
@@ -9664,7 +9701,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -9699,7 +9736,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>41</v>
       </c>
@@ -9734,7 +9771,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
@@ -9769,7 +9806,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9804,7 +9841,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" s="24" t="s">
         <v>45</v>
       </c>
@@ -9851,7 +9888,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -9909,7 +9946,7 @@
         <v>0.93661971830985913</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>56</v>
       </c>
@@ -9964,7 +10001,7 @@
         <v>0.97633136094674555</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -10022,7 +10059,7 @@
         <v>0.90123456790123457</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>56</v>
       </c>
@@ -10077,7 +10114,7 @@
         <v>0.80882352941176472</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -10135,7 +10172,7 @@
         <v>0.95419847328244278</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>56</v>
       </c>
@@ -10190,7 +10227,7 @@
         <v>0.94573643410852715</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -10248,7 +10285,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>56</v>
       </c>
@@ -10317,22 +10354,22 @@
       <selection activeCell="AB2" activeCellId="5" sqref="M2:M4 P2:P4 S2:S4 V2:V4 Y2:Y4 AB2:AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N2">
         <v>2020</v>
       </c>
@@ -10364,7 +10401,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -10452,7 +10489,7 @@
         <v>0.92252252252252254</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -10540,7 +10577,7 @@
         <v>0.9178470254957507</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -10575,7 +10612,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10625,15 +10662,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>43</v>
       </c>
@@ -10641,7 +10678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10649,7 +10686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10657,7 +10694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10665,7 +10702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10673,7 +10710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -10697,30 +10734,30 @@
       <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" customWidth="1"/>
-    <col min="8" max="9" width="5.796875" customWidth="1"/>
-    <col min="10" max="10" width="6.796875" customWidth="1"/>
-    <col min="11" max="12" width="5.796875" customWidth="1"/>
-    <col min="13" max="13" width="6.796875" customWidth="1"/>
-    <col min="14" max="15" width="5.796875" customWidth="1"/>
-    <col min="16" max="16" width="6.796875" customWidth="1"/>
-    <col min="17" max="19" width="5.796875" customWidth="1"/>
-    <col min="20" max="20" width="6.796875" customWidth="1"/>
-    <col min="21" max="21" width="5.796875" customWidth="1"/>
-    <col min="22" max="22" width="32.796875" customWidth="1"/>
-    <col min="23" max="23" width="12.19921875" customWidth="1"/>
-    <col min="30" max="31" width="17.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1"/>
+    <col min="14" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" customWidth="1"/>
+    <col min="17" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" customWidth="1"/>
+    <col min="22" max="22" width="32.77734375" customWidth="1"/>
+    <col min="23" max="23" width="12.21875" customWidth="1"/>
+    <col min="30" max="31" width="17.44140625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -10795,7 +10832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -10860,7 +10897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10931,7 +10968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -11002,7 +11039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -11073,7 +11110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -11116,7 +11153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -11165,7 +11202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -11236,7 +11273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -11309,7 +11346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -11384,7 +11421,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -11449,7 +11486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -11520,7 +11557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -11573,7 +11610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -11644,7 +11681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -11715,7 +11752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -11786,7 +11823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -11859,7 +11896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -11930,7 +11967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -12001,7 +12038,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -12072,7 +12109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -12143,7 +12180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -12214,7 +12251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -12285,7 +12322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -12356,7 +12393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -12427,7 +12464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -12498,7 +12535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -12569,7 +12606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -12610,7 +12647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -12681,7 +12718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD30" s="27">
         <v>29</v>
       </c>
@@ -12689,7 +12726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD31" s="27">
         <v>30</v>
       </c>
@@ -12697,7 +12734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD32" s="27">
         <v>31</v>
       </c>
@@ -12705,7 +12742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD33" s="27">
         <v>32</v>
       </c>
@@ -12713,7 +12750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD34" s="27">
         <v>33</v>
       </c>
@@ -12721,7 +12758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD35" s="27">
         <v>34</v>
       </c>
@@ -12729,7 +12766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD36" s="27">
         <v>35</v>
       </c>
@@ -12737,7 +12774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD37" s="27">
         <v>36</v>
       </c>
@@ -12745,7 +12782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD38" s="27">
         <v>37</v>
       </c>
@@ -12753,7 +12790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD39" s="27">
         <v>38</v>
       </c>
@@ -12761,7 +12798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD40" s="27">
         <v>39</v>
       </c>
@@ -12769,7 +12806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD41" s="27">
         <v>40</v>
       </c>
@@ -12777,7 +12814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD42" s="27">
         <v>41</v>
       </c>
@@ -12785,7 +12822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD43" s="27">
         <v>42</v>
       </c>
@@ -12793,7 +12830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD44" s="27">
         <v>43</v>
       </c>
@@ -12801,7 +12838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD45" s="27">
         <v>44</v>
       </c>
@@ -12809,7 +12846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD46" s="27">
         <v>45</v>
       </c>
@@ -12817,7 +12854,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD47" s="27">
         <v>46</v>
       </c>
@@ -12825,7 +12862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD48" s="27">
         <v>47</v>
       </c>
@@ -12833,7 +12870,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD49" s="27">
         <v>48</v>
       </c>
@@ -12841,7 +12878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD50" s="27">
         <v>49</v>
       </c>
@@ -12849,7 +12886,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD51" s="27">
         <v>50</v>
       </c>
@@ -12857,7 +12894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD52" s="27">
         <v>51</v>
       </c>
@@ -12865,7 +12902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD53" s="27">
         <v>52</v>
       </c>
@@ -12873,7 +12910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD54" s="27">
         <v>53</v>
       </c>
@@ -12881,7 +12918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD55" s="27">
         <v>54</v>
       </c>
@@ -12889,7 +12926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD56" s="27">
         <v>55</v>
       </c>
@@ -12897,7 +12934,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD57" s="27">
         <v>56</v>
       </c>
@@ -12905,7 +12942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD58" s="27">
         <v>57</v>
       </c>
@@ -12913,7 +12950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD59" s="27">
         <v>58</v>
       </c>
@@ -12921,7 +12958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD60" s="27">
         <v>59</v>
       </c>
@@ -12929,7 +12966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD61" s="27">
         <v>60</v>
       </c>
@@ -12937,7 +12974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD62" s="27">
         <v>61</v>
       </c>
@@ -12945,7 +12982,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD63" s="27">
         <v>62</v>
       </c>
@@ -12953,7 +12990,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD64" s="27">
         <v>63</v>
       </c>
@@ -12961,7 +12998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD65" s="27">
         <v>64</v>
       </c>
@@ -12969,7 +13006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD66" s="27">
         <v>65</v>
       </c>
@@ -12977,7 +13014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD67" s="27">
         <v>66</v>
       </c>
@@ -12985,7 +13022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD68" s="27">
         <v>67</v>
       </c>
@@ -12993,7 +13030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD69" s="27">
         <v>68</v>
       </c>
@@ -13001,7 +13038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD70" s="27">
         <v>69</v>
       </c>
@@ -13009,7 +13046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD71" s="27">
         <v>70</v>
       </c>
@@ -13017,7 +13054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD72" s="27">
         <v>71</v>
       </c>
@@ -13025,7 +13062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD73" s="27">
         <v>72</v>
       </c>
@@ -13033,7 +13070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD74" s="27">
         <v>73</v>
       </c>
@@ -13041,7 +13078,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD75" s="27">
         <v>74</v>
       </c>
@@ -13049,7 +13086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD76" s="27">
         <v>75</v>
       </c>
@@ -13057,7 +13094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD77" s="27">
         <v>76</v>
       </c>
@@ -13065,7 +13102,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD78" s="27">
         <v>77</v>
       </c>
@@ -13073,7 +13110,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD79" s="27">
         <v>78</v>
       </c>
@@ -13081,7 +13118,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD80" s="27">
         <v>79</v>
       </c>
@@ -13089,7 +13126,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD81" s="27">
         <v>80</v>
       </c>
@@ -13097,7 +13134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD82" s="27">
         <v>81</v>
       </c>
@@ -13105,7 +13142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD83" s="27">
         <v>82</v>
       </c>
@@ -13113,7 +13150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD84" s="27">
         <v>83</v>
       </c>
@@ -13121,7 +13158,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD85" s="27">
         <v>84</v>
       </c>
@@ -13129,7 +13166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD86" s="27">
         <v>85</v>
       </c>
@@ -13137,7 +13174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD87" s="27">
         <v>86</v>
       </c>
@@ -13145,7 +13182,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD88" s="27">
         <v>87</v>
       </c>
@@ -13153,7 +13190,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD89" s="27">
         <v>88</v>
       </c>
@@ -13161,7 +13198,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD90" s="27">
         <v>89</v>
       </c>
@@ -13169,7 +13206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD91" s="27">
         <v>90</v>
       </c>
@@ -13177,7 +13214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD92" s="27">
         <v>91</v>
       </c>
@@ -13185,7 +13222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD93" s="27">
         <v>92</v>
       </c>
@@ -13193,7 +13230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD94" s="27">
         <v>93</v>
       </c>
@@ -13201,7 +13238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD95" s="27">
         <v>94</v>
       </c>
@@ -13209,7 +13246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="30:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD96" s="27">
         <v>95</v>
       </c>
@@ -13217,7 +13254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="30:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="30:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD98" s="30"/>
     </row>
   </sheetData>
@@ -13238,12 +13275,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -13260,7 +13297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13277,7 +13314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13294,7 +13331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -13311,7 +13348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -13328,7 +13365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -13339,7 +13376,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13356,12 +13393,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>93</v>
@@ -13373,12 +13410,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <v>48</v>
@@ -13390,7 +13427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -13407,7 +13444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -13424,12 +13461,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>50</v>
@@ -13441,12 +13478,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6">
         <v>37</v>
@@ -13458,12 +13495,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>49</v>
@@ -13475,12 +13512,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>82</v>
@@ -13492,12 +13529,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>28</v>
@@ -13509,12 +13546,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6">
         <v>36</v>
@@ -13526,12 +13563,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6">
         <v>36</v>
@@ -13543,12 +13580,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="6">
         <v>39</v>
@@ -13560,12 +13597,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6">
         <v>87</v>
@@ -13577,12 +13614,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6">
         <v>65</v>
@@ -13594,12 +13631,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6">
         <v>50</v>
@@ -13611,12 +13648,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="6">
         <v>56</v>
@@ -13628,7 +13665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -13645,12 +13682,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>44</v>
@@ -13662,12 +13699,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6">
         <v>47</v>
@@ -13679,12 +13716,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6">
         <v>44</v>
@@ -13696,7 +13733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -13707,12 +13744,12 @@
       <c r="D28" s="8"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
@@ -13734,12 +13771,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.3984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -13756,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13773,7 +13810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13790,7 +13827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -13807,7 +13844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -13824,7 +13861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -13834,7 +13871,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13845,12 +13882,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>92</v>
@@ -13862,12 +13899,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <v>47</v>
@@ -13879,7 +13916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -13896,7 +13933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -13913,12 +13950,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>34</v>
@@ -13930,12 +13967,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -13947,12 +13984,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>48</v>
@@ -13964,12 +14001,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>59</v>
@@ -13981,12 +14018,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>7</v>
@@ -13998,12 +14035,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6">
         <v>44</v>
@@ -14015,12 +14052,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6">
         <v>37</v>
@@ -14032,12 +14069,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="6">
         <v>56</v>
@@ -14049,12 +14086,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6">
         <v>87</v>
@@ -14066,12 +14103,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6">
         <v>71</v>
@@ -14083,12 +14120,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6">
         <v>46</v>
@@ -14100,12 +14137,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="6">
         <v>62</v>
@@ -14117,7 +14154,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -14134,12 +14171,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>78</v>
@@ -14151,12 +14188,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6">
         <v>37</v>
@@ -14168,12 +14205,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6">
         <v>66</v>
@@ -14185,7 +14222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -14196,12 +14233,12 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>17</v>
@@ -14222,17 +14259,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771AD6CE-FF08-4080-ACD3-8DDAE72DE24D}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.796875" customWidth="1"/>
-    <col min="4" max="5" width="5.796875" customWidth="1"/>
+    <col min="1" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="5" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -14249,7 +14287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -14266,7 +14304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14283,7 +14321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -14300,7 +14338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -14317,7 +14355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -14327,7 +14365,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14338,12 +14376,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>120</v>
@@ -14355,12 +14393,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <v>47</v>
@@ -14372,7 +14410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -14389,7 +14427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -14406,12 +14444,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>33</v>
@@ -14423,23 +14461,23 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>89</v>
@@ -14451,12 +14489,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>83</v>
@@ -14468,12 +14506,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="77" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>41</v>
@@ -14485,12 +14523,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6">
         <v>41</v>
@@ -14502,12 +14540,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6">
         <v>34</v>
@@ -14519,12 +14557,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="6">
         <v>33</v>
@@ -14536,12 +14574,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6">
         <v>114</v>
@@ -14553,12 +14591,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6">
         <v>53</v>
@@ -14570,12 +14608,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6">
         <v>33</v>
@@ -14587,12 +14625,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="6">
         <v>66</v>
@@ -14604,7 +14642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -14621,12 +14659,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>109</v>
@@ -14638,12 +14676,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="58.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6">
         <v>46</v>
@@ -14655,12 +14693,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6">
         <v>72</v>
@@ -14672,7 +14710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -14683,12 +14721,12 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>13</v>
@@ -14709,13 +14747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9048F8C0-30F7-43A7-9EFA-DEAB385EE3A7}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -14732,7 +14770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -14749,7 +14787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14766,7 +14804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -14783,7 +14821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -14800,7 +14838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14849,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14822,12 +14860,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>114</v>
@@ -14839,12 +14877,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <v>44</v>
@@ -14856,7 +14894,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -14873,7 +14911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -14890,12 +14928,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>31</v>
@@ -14907,23 +14945,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>101</v>
@@ -14935,12 +14973,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>108</v>
@@ -14952,12 +14990,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="77" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>30</v>
@@ -14969,12 +15007,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6">
         <v>36</v>
@@ -14986,12 +15024,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6">
         <v>40</v>
@@ -15003,12 +15041,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="6">
         <v>47</v>
@@ -15020,12 +15058,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6">
         <v>83</v>
@@ -15037,12 +15075,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6">
         <v>42</v>
@@ -15054,12 +15092,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6">
         <v>44</v>
@@ -15071,12 +15109,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="6">
         <v>64</v>
@@ -15088,7 +15126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -15105,12 +15143,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>128</v>
@@ -15122,12 +15160,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="58.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6">
         <v>60</v>
@@ -15139,12 +15177,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6">
         <v>59</v>
@@ -15156,7 +15194,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -15167,12 +15205,12 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>14</v>
@@ -15193,13 +15231,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87D60C5-A27A-4E68-92CA-7E3FD0441A01}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -15216,7 +15254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -15227,7 +15265,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -15244,7 +15282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -15261,7 +15299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -15278,7 +15316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -15289,7 +15327,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -15300,12 +15338,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>118</v>
@@ -15317,12 +15355,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <v>41</v>
@@ -15334,7 +15372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -15351,7 +15389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -15362,12 +15400,12 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6">
         <v>38</v>
@@ -15379,23 +15417,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6">
         <v>102</v>
@@ -15407,12 +15445,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <v>117</v>
@@ -15424,12 +15462,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6">
         <v>37</v>
@@ -15441,12 +15479,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6">
         <v>40</v>
@@ -15458,12 +15496,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="6">
         <v>38</v>
@@ -15475,12 +15513,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="6">
         <v>48</v>
@@ -15492,12 +15530,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6">
         <v>84</v>
@@ -15509,12 +15547,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6">
         <v>82</v>
@@ -15526,12 +15564,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6">
         <v>27</v>
@@ -15543,12 +15581,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="6">
         <v>58</v>
@@ -15560,7 +15598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -15577,12 +15615,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>110</v>
@@ -15594,12 +15632,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6">
         <v>37</v>
@@ -15611,12 +15649,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6">
         <v>72</v>
@@ -15628,7 +15666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -15639,12 +15677,12 @@
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>

--- a/data/LPN NCLEX pass rates.xlsx
+++ b/data/LPN NCLEX pass rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoy01\YanCao\CaoFiles\git clone folder\LPN-nclex-passrate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB38B5B2-B60F-45A9-AD83-9A2BB641F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F5063-C7E3-47D1-9911-FB53D9E90136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="3" r:id="rId1"/>
@@ -864,7 +864,7 @@
     <t>Madison, TN</t>
   </si>
   <si>
-    <t>McMinn, TN</t>
+    <t>Mcminn, TN</t>
   </si>
 </sst>
 </file>
@@ -13274,7 +13274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BFAF46-0FC1-44F6-898D-8CBDB9714A45}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -14287,7 +14287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -14365,7 +14365,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14376,7 +14376,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -14472,7 +14472,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -14721,7 +14721,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -15231,8 +15231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87D60C5-A27A-4E68-92CA-7E3FD0441A01}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data/LPN NCLEX pass rates.xlsx
+++ b/data/LPN NCLEX pass rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoy01\YanCao\CaoFiles\git clone folder\LPN-nclex-passrate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F5063-C7E3-47D1-9911-FB53D9E90136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69715F96-A2CB-4844-A591-DC8AC84E430B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
